--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/54/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/54/FD_Curve.xlsx
@@ -466,21 +466,21 @@
         <v>0.0310005</v>
       </c>
       <c r="B3" t="n">
-        <v>0.981912</v>
+        <v>1.11364</v>
       </c>
       <c r="C3" t="n">
-        <v>981.912</v>
+        <v>1113.64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0620039</v>
+        <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>1.4163</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>1416.3</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
@@ -488,21 +488,21 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>1.73924</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>1739.24</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.12401</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>2.04</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>2040</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
@@ -510,659 +510,659 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>2.25158</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>2251.58</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186017</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>2.42414</v>
+        <v>6.66604</v>
       </c>
       <c r="C8" t="n">
-        <v>2424.14</v>
+        <v>6666.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216993</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>2.50405</v>
+        <v>7.64391</v>
       </c>
       <c r="C9" t="n">
-        <v>2504.05</v>
+        <v>7643.91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247969</v>
+        <v>0.247931</v>
       </c>
       <c r="B10" t="n">
-        <v>2.52972</v>
+        <v>8.566459999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>2529.72</v>
+        <v>8566.459999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278895</v>
+        <v>0.278856</v>
       </c>
       <c r="B11" t="n">
-        <v>2.5275</v>
+        <v>9.41722</v>
       </c>
       <c r="C11" t="n">
-        <v>2527.5</v>
+        <v>9417.219999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309816</v>
+        <v>0.309786</v>
       </c>
       <c r="B12" t="n">
-        <v>2.52134</v>
+        <v>10.314</v>
       </c>
       <c r="C12" t="n">
-        <v>2521.34</v>
+        <v>10314</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340741</v>
+        <v>0.340711</v>
       </c>
       <c r="B13" t="n">
-        <v>2.51509</v>
+        <v>10.9956</v>
       </c>
       <c r="C13" t="n">
-        <v>2515.09</v>
+        <v>10995.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371666</v>
+        <v>0.371636</v>
       </c>
       <c r="B14" t="n">
-        <v>2.5075</v>
+        <v>11.6514</v>
       </c>
       <c r="C14" t="n">
-        <v>2507.5</v>
+        <v>11651.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402591</v>
+        <v>0.402561</v>
       </c>
       <c r="B15" t="n">
-        <v>2.49994</v>
+        <v>12.0842</v>
       </c>
       <c r="C15" t="n">
-        <v>2499.94</v>
+        <v>12084.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433516</v>
+        <v>0.433486</v>
       </c>
       <c r="B16" t="n">
-        <v>2.49162</v>
+        <v>12.2301</v>
       </c>
       <c r="C16" t="n">
-        <v>2491.62</v>
+        <v>12230.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464441</v>
+        <v>0.464411</v>
       </c>
       <c r="B17" t="n">
-        <v>2.4833</v>
+        <v>12.2054</v>
       </c>
       <c r="C17" t="n">
-        <v>2483.3</v>
+        <v>12205.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495366</v>
+        <v>0.495336</v>
       </c>
       <c r="B18" t="n">
-        <v>2.47445</v>
+        <v>12.146</v>
       </c>
       <c r="C18" t="n">
-        <v>2474.45</v>
+        <v>12146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526291</v>
+        <v>0.526261</v>
       </c>
       <c r="B19" t="n">
-        <v>2.46543</v>
+        <v>12.0907</v>
       </c>
       <c r="C19" t="n">
-        <v>2465.43</v>
+        <v>12090.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557216</v>
+        <v>0.557186</v>
       </c>
       <c r="B20" t="n">
-        <v>2.45613</v>
+        <v>12.0306</v>
       </c>
       <c r="C20" t="n">
-        <v>2456.13</v>
+        <v>12030.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588141</v>
+        <v>0.5881110000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>2.44648</v>
+        <v>11.9536</v>
       </c>
       <c r="C21" t="n">
-        <v>2446.48</v>
+        <v>11953.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619183</v>
+        <v>0.619153</v>
       </c>
       <c r="B22" t="n">
-        <v>2.43636</v>
+        <v>11.88</v>
       </c>
       <c r="C22" t="n">
-        <v>2436.36</v>
+        <v>11880</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650356</v>
+        <v>0.650325</v>
       </c>
       <c r="B23" t="n">
-        <v>2.42567</v>
+        <v>11.7901</v>
       </c>
       <c r="C23" t="n">
-        <v>2425.67</v>
+        <v>11790.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6815330000000001</v>
+        <v>0.681498</v>
       </c>
       <c r="B24" t="n">
-        <v>2.41466</v>
+        <v>11.7042</v>
       </c>
       <c r="C24" t="n">
-        <v>2414.66</v>
+        <v>11704.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712705</v>
+        <v>0.7126749999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>2.40339</v>
+        <v>11.6047</v>
       </c>
       <c r="C25" t="n">
-        <v>2403.39</v>
+        <v>11604.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743878</v>
+        <v>0.743848</v>
       </c>
       <c r="B26" t="n">
-        <v>2.39176</v>
+        <v>11.5041</v>
       </c>
       <c r="C26" t="n">
-        <v>2391.76</v>
+        <v>11504.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775055</v>
+        <v>0.77502</v>
       </c>
       <c r="B27" t="n">
-        <v>2.37965</v>
+        <v>11.3971</v>
       </c>
       <c r="C27" t="n">
-        <v>2379.65</v>
+        <v>11397.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8062279999999999</v>
+        <v>0.8061970000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>2.36715</v>
+        <v>11.2806</v>
       </c>
       <c r="C28" t="n">
-        <v>2367.15</v>
+        <v>11280.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8374</v>
+        <v>0.8373699999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>2.35406</v>
+        <v>11.1657</v>
       </c>
       <c r="C29" t="n">
-        <v>2354.06</v>
+        <v>11165.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868577</v>
+        <v>0.868547</v>
       </c>
       <c r="B30" t="n">
-        <v>2.34049</v>
+        <v>11.0365</v>
       </c>
       <c r="C30" t="n">
-        <v>2340.49</v>
+        <v>11036.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.89975</v>
+        <v>0.899719</v>
       </c>
       <c r="B31" t="n">
-        <v>2.32647</v>
+        <v>10.9106</v>
       </c>
       <c r="C31" t="n">
-        <v>2326.47</v>
+        <v>10910.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9309269999999999</v>
+        <v>0.9308920000000001</v>
       </c>
       <c r="B32" t="n">
-        <v>2.31179</v>
+        <v>10.7713</v>
       </c>
       <c r="C32" t="n">
-        <v>2311.79</v>
+        <v>10771.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962099</v>
+        <v>0.962069</v>
       </c>
       <c r="B33" t="n">
-        <v>2.2965</v>
+        <v>10.6312</v>
       </c>
       <c r="C33" t="n">
-        <v>2296.5</v>
+        <v>10631.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993272</v>
+        <v>0.993241</v>
       </c>
       <c r="B34" t="n">
-        <v>2.28047</v>
+        <v>10.4849</v>
       </c>
       <c r="C34" t="n">
-        <v>2280.47</v>
+        <v>10484.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02458</v>
+        <v>1.02427</v>
       </c>
       <c r="B35" t="n">
-        <v>2.26353</v>
+        <v>10.3302</v>
       </c>
       <c r="C35" t="n">
-        <v>2263.53</v>
+        <v>10330.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05584</v>
+        <v>1.05524</v>
       </c>
       <c r="B36" t="n">
-        <v>2.24571</v>
+        <v>10.1758</v>
       </c>
       <c r="C36" t="n">
-        <v>2245.71</v>
+        <v>10175.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08687</v>
+        <v>1.08625</v>
       </c>
       <c r="B37" t="n">
-        <v>2.22721</v>
+        <v>6.75438</v>
       </c>
       <c r="C37" t="n">
-        <v>2227.21</v>
+        <v>6754.38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11784</v>
+        <v>1.11701</v>
       </c>
       <c r="B38" t="n">
-        <v>2.20792</v>
+        <v>10.716</v>
       </c>
       <c r="C38" t="n">
-        <v>2207.92</v>
+        <v>10716</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14882</v>
+        <v>1.14832</v>
       </c>
       <c r="B39" t="n">
-        <v>2.18769</v>
+        <v>6.959680000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>2187.69</v>
+        <v>6959.68</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17983</v>
+        <v>1.17914</v>
       </c>
       <c r="B40" t="n">
-        <v>2.16666</v>
+        <v>8.325479999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>2166.66</v>
+        <v>8325.48</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21084</v>
+        <v>1.21018</v>
       </c>
       <c r="B41" t="n">
-        <v>2.14487</v>
+        <v>9.36792</v>
       </c>
       <c r="C41" t="n">
-        <v>2144.87</v>
+        <v>9367.92</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24193</v>
+        <v>1.2409</v>
       </c>
       <c r="B42" t="n">
-        <v>2.12234</v>
+        <v>9.386120000000002</v>
       </c>
       <c r="C42" t="n">
-        <v>2122.34</v>
+        <v>9386.120000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27279</v>
+        <v>1.27212</v>
       </c>
       <c r="B43" t="n">
-        <v>2.09922</v>
+        <v>9.337760000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>2099.22</v>
+        <v>9337.76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.3039</v>
+        <v>1.30305</v>
       </c>
       <c r="B44" t="n">
-        <v>2.0752</v>
+        <v>8.97218</v>
       </c>
       <c r="C44" t="n">
-        <v>2075.2</v>
+        <v>8972.18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33476</v>
+        <v>1.33392</v>
       </c>
       <c r="B45" t="n">
-        <v>2.05077</v>
+        <v>8.78955</v>
       </c>
       <c r="C45" t="n">
-        <v>2050.77</v>
+        <v>8789.549999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36593</v>
+        <v>1.36522</v>
       </c>
       <c r="B46" t="n">
-        <v>2.02555</v>
+        <v>8.513059999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>2025.55</v>
+        <v>8513.059999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39676</v>
+        <v>1.39624</v>
       </c>
       <c r="B47" t="n">
-        <v>2.0002</v>
+        <v>8.49502</v>
       </c>
       <c r="C47" t="n">
-        <v>2000.2</v>
+        <v>8495.02</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42795</v>
+        <v>1.42726</v>
       </c>
       <c r="B48" t="n">
-        <v>1.97421</v>
+        <v>8.304110000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>1974.21</v>
+        <v>8304.110000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45864</v>
+        <v>1.45825</v>
       </c>
       <c r="B49" t="n">
-        <v>1.94824</v>
+        <v>8.089920000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>1948.24</v>
+        <v>8089.92</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48994</v>
+        <v>1.48916</v>
       </c>
       <c r="B50" t="n">
-        <v>1.9215</v>
+        <v>7.80489</v>
       </c>
       <c r="C50" t="n">
-        <v>1921.5</v>
+        <v>7804.89</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52064</v>
+        <v>1.52026</v>
       </c>
       <c r="B51" t="n">
-        <v>1.89513</v>
+        <v>7.65954</v>
       </c>
       <c r="C51" t="n">
-        <v>1895.13</v>
+        <v>7659.54</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55192</v>
+        <v>1.55108</v>
       </c>
       <c r="B52" t="n">
-        <v>1.86819</v>
+        <v>7.48686</v>
       </c>
       <c r="C52" t="n">
-        <v>1868.19</v>
+        <v>7486.86</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58277</v>
+        <v>1.58222</v>
       </c>
       <c r="B53" t="n">
-        <v>1.84166</v>
+        <v>7.41316</v>
       </c>
       <c r="C53" t="n">
-        <v>1841.66</v>
+        <v>7413.16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61385</v>
+        <v>1.61307</v>
       </c>
       <c r="B54" t="n">
-        <v>1.81501</v>
+        <v>7.207920000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>1815.01</v>
+        <v>7207.92</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.6449</v>
+        <v>1.64417</v>
       </c>
       <c r="B55" t="n">
-        <v>1.78849</v>
+        <v>6.99251</v>
       </c>
       <c r="C55" t="n">
-        <v>1788.49</v>
+        <v>6992.51</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67562</v>
+        <v>1.67512</v>
       </c>
       <c r="B56" t="n">
-        <v>1.76245</v>
+        <v>6.83965</v>
       </c>
       <c r="C56" t="n">
-        <v>1762.45</v>
+        <v>6839.65</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70696</v>
+        <v>1.70605</v>
       </c>
       <c r="B57" t="n">
-        <v>1.73619</v>
+        <v>6.74322</v>
       </c>
       <c r="C57" t="n">
-        <v>1736.19</v>
+        <v>6743.22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73772</v>
+        <v>1.73733</v>
       </c>
       <c r="B58" t="n">
-        <v>1.7107</v>
+        <v>6.65404</v>
       </c>
       <c r="C58" t="n">
-        <v>1710.7</v>
+        <v>6654.04</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76883</v>
+        <v>1.76812</v>
       </c>
       <c r="B59" t="n">
-        <v>1.68528</v>
+        <v>6.491540000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>1685.28</v>
+        <v>6491.54</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79997</v>
+        <v>1.79936</v>
       </c>
       <c r="B60" t="n">
-        <v>1.66018</v>
+        <v>6.38842</v>
       </c>
       <c r="C60" t="n">
-        <v>1660.18</v>
+        <v>6388.42</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83059</v>
+        <v>1.83044</v>
       </c>
       <c r="B61" t="n">
-        <v>1.636</v>
+        <v>6.283180000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>1636</v>
+        <v>6283.18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.862</v>
+        <v>1.86102</v>
       </c>
       <c r="B62" t="n">
-        <v>1.61166</v>
+        <v>6.18812</v>
       </c>
       <c r="C62" t="n">
-        <v>1611.66</v>
+        <v>6188.12</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89299</v>
+        <v>1.8922</v>
       </c>
       <c r="B63" t="n">
-        <v>1.58798</v>
+        <v>6.05485</v>
       </c>
       <c r="C63" t="n">
-        <v>1587.98</v>
+        <v>6054.85</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92348</v>
+        <v>1.92351</v>
       </c>
       <c r="B64" t="n">
-        <v>1.56525</v>
+        <v>5.99439</v>
       </c>
       <c r="C64" t="n">
-        <v>1565.25</v>
+        <v>5994.39</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95489</v>
+        <v>1.95427</v>
       </c>
       <c r="B65" t="n">
-        <v>1.54246</v>
+        <v>5.87488</v>
       </c>
       <c r="C65" t="n">
-        <v>1542.46</v>
+        <v>5874.88</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98608</v>
+        <v>1.98499</v>
       </c>
       <c r="B66" t="n">
-        <v>1.5205</v>
+        <v>5.81408</v>
       </c>
       <c r="C66" t="n">
-        <v>1520.5</v>
+        <v>5814.08</v>
       </c>
     </row>
     <row r="67">
@@ -1170,395 +1170,395 @@
         <v>2.01655</v>
       </c>
       <c r="B67" t="n">
-        <v>1.49945</v>
+        <v>5.69895</v>
       </c>
       <c r="C67" t="n">
-        <v>1499.45</v>
+        <v>5698.95</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04739</v>
+        <v>2.0476</v>
       </c>
       <c r="B68" t="n">
-        <v>1.47867</v>
+        <v>5.64757</v>
       </c>
       <c r="C68" t="n">
-        <v>1478.67</v>
+        <v>5647.57</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07901</v>
+        <v>2.07858</v>
       </c>
       <c r="B69" t="n">
-        <v>1.45838</v>
+        <v>5.55949</v>
       </c>
       <c r="C69" t="n">
-        <v>1458.38</v>
+        <v>5559.49</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10983</v>
+        <v>2.10906</v>
       </c>
       <c r="B70" t="n">
-        <v>1.43911</v>
+        <v>5.51151</v>
       </c>
       <c r="C70" t="n">
-        <v>1439.11</v>
+        <v>5511.51</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13995</v>
+        <v>2.14055</v>
       </c>
       <c r="B71" t="n">
-        <v>1.42064</v>
+        <v>5.42216</v>
       </c>
       <c r="C71" t="n">
-        <v>1420.64</v>
+        <v>5422.16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17172</v>
+        <v>2.17202</v>
       </c>
       <c r="B72" t="n">
-        <v>1.40208</v>
+        <v>5.37482</v>
       </c>
       <c r="C72" t="n">
-        <v>1402.08</v>
+        <v>5374.82</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20319</v>
+        <v>2.20219</v>
       </c>
       <c r="B73" t="n">
-        <v>1.38435</v>
+        <v>5.3151</v>
       </c>
       <c r="C73" t="n">
-        <v>1384.35</v>
+        <v>5315.1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23359</v>
+        <v>2.23297</v>
       </c>
       <c r="B74" t="n">
-        <v>1.36761</v>
+        <v>5.26574</v>
       </c>
       <c r="C74" t="n">
-        <v>1367.61</v>
+        <v>5265.74</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26399</v>
+        <v>2.26373</v>
       </c>
       <c r="B75" t="n">
-        <v>1.35152</v>
+        <v>5.228</v>
       </c>
       <c r="C75" t="n">
-        <v>1351.52</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.295</v>
+        <v>2.29445</v>
       </c>
       <c r="B76" t="n">
-        <v>1.33591</v>
+        <v>5.24009</v>
       </c>
       <c r="C76" t="n">
-        <v>1335.91</v>
+        <v>5240.09</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32572</v>
+        <v>2.32517</v>
       </c>
       <c r="B77" t="n">
-        <v>1.32102</v>
+        <v>5.27623</v>
       </c>
       <c r="C77" t="n">
-        <v>1321.02</v>
+        <v>5276.23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35644</v>
+        <v>2.35637</v>
       </c>
       <c r="B78" t="n">
-        <v>1.30664</v>
+        <v>5.229979999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>1306.64</v>
+        <v>5229.98</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38716</v>
+        <v>2.38766</v>
       </c>
       <c r="B79" t="n">
-        <v>1.29267</v>
+        <v>5.215</v>
       </c>
       <c r="C79" t="n">
-        <v>1292.67</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41792</v>
+        <v>2.41895</v>
       </c>
       <c r="B80" t="n">
-        <v>1.27913</v>
+        <v>5.193090000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>1279.13</v>
+        <v>5193.09</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.4494</v>
+        <v>2.44903</v>
       </c>
       <c r="B81" t="n">
-        <v>1.26524</v>
+        <v>5.20087</v>
       </c>
       <c r="C81" t="n">
-        <v>1265.24</v>
+        <v>5200.87</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48048</v>
+        <v>2.48415</v>
       </c>
       <c r="B82" t="n">
-        <v>1.2522</v>
+        <v>5.17871</v>
       </c>
       <c r="C82" t="n">
-        <v>1252.2</v>
+        <v>5178.71</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51061</v>
+        <v>2.51935</v>
       </c>
       <c r="B83" t="n">
-        <v>1.24045</v>
+        <v>5.17755</v>
       </c>
       <c r="C83" t="n">
-        <v>1240.45</v>
+        <v>5177.55</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53987</v>
+        <v>2.55243</v>
       </c>
       <c r="B84" t="n">
-        <v>1.22962</v>
+        <v>5.1147</v>
       </c>
       <c r="C84" t="n">
-        <v>1229.62</v>
+        <v>5114.7</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.56912</v>
+        <v>2.58443</v>
       </c>
       <c r="B85" t="n">
-        <v>1.21912</v>
+        <v>5.13694</v>
       </c>
       <c r="C85" t="n">
-        <v>1219.12</v>
+        <v>5136.94</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.59838</v>
+        <v>2.61643</v>
       </c>
       <c r="B86" t="n">
-        <v>1.20878</v>
+        <v>5.08854</v>
       </c>
       <c r="C86" t="n">
-        <v>1208.78</v>
+        <v>5088.54</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.62764</v>
+        <v>2.64843</v>
       </c>
       <c r="B87" t="n">
-        <v>1.1986</v>
+        <v>5.03599</v>
       </c>
       <c r="C87" t="n">
-        <v>1198.6</v>
+        <v>5035.99</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.65689</v>
+        <v>2.68043</v>
       </c>
       <c r="B88" t="n">
-        <v>1.18867</v>
+        <v>4.98455</v>
       </c>
       <c r="C88" t="n">
-        <v>1188.67</v>
+        <v>4984.55</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.68914</v>
+        <v>2.71243</v>
       </c>
       <c r="B89" t="n">
-        <v>1.17823</v>
+        <v>4.96999</v>
       </c>
       <c r="C89" t="n">
-        <v>1178.23</v>
+        <v>4969.99</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72121</v>
+        <v>2.74443</v>
       </c>
       <c r="B90" t="n">
-        <v>1.16928</v>
+        <v>4.95138</v>
       </c>
       <c r="C90" t="n">
-        <v>1169.28</v>
+        <v>4951.38</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75321</v>
+        <v>2.77643</v>
       </c>
       <c r="B91" t="n">
-        <v>1.16083</v>
+        <v>4.91904</v>
       </c>
       <c r="C91" t="n">
-        <v>1160.83</v>
+        <v>4919.04</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78418</v>
+        <v>2.80691</v>
       </c>
       <c r="B92" t="n">
-        <v>1.15418</v>
+        <v>4.89525</v>
       </c>
       <c r="C92" t="n">
-        <v>1154.18</v>
+        <v>4895.25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.81404</v>
+        <v>2.83572</v>
       </c>
       <c r="B93" t="n">
-        <v>1.14863</v>
+        <v>4.903300000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>1148.63</v>
+        <v>4903.3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.84391</v>
+        <v>2.86452</v>
       </c>
       <c r="B94" t="n">
-        <v>1.1429</v>
+        <v>4.89244</v>
       </c>
       <c r="C94" t="n">
-        <v>1142.9</v>
+        <v>4892.44</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.87378</v>
+        <v>2.89332</v>
       </c>
       <c r="B95" t="n">
-        <v>1.13717</v>
+        <v>4.83733</v>
       </c>
       <c r="C95" t="n">
-        <v>1137.17</v>
+        <v>4837.33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.90364</v>
+        <v>2.92212</v>
       </c>
       <c r="B96" t="n">
-        <v>1.1311</v>
+        <v>4.7969</v>
       </c>
       <c r="C96" t="n">
-        <v>1131.1</v>
+        <v>4796.9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.93364</v>
+        <v>2.95092</v>
       </c>
       <c r="B97" t="n">
-        <v>1.12562</v>
+        <v>4.79874</v>
       </c>
       <c r="C97" t="n">
-        <v>1125.62</v>
+        <v>4798.74</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.96436</v>
+        <v>2.97972</v>
       </c>
       <c r="B98" t="n">
-        <v>1.12132</v>
+        <v>4.7439</v>
       </c>
       <c r="C98" t="n">
-        <v>1121.32</v>
+        <v>4743.9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.99508</v>
+        <v>3.00852</v>
       </c>
       <c r="B99" t="n">
-        <v>1.1164</v>
+        <v>4.74783</v>
       </c>
       <c r="C99" t="n">
-        <v>1116.4</v>
+        <v>4747.83</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.0258</v>
+        <v>3.03732</v>
       </c>
       <c r="B100" t="n">
-        <v>1.11096</v>
+        <v>4.71524</v>
       </c>
       <c r="C100" t="n">
-        <v>1110.96</v>
+        <v>4715.24</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.05652</v>
+        <v>3.06612</v>
       </c>
       <c r="B101" t="n">
-        <v>1.10561</v>
+        <v>4.71917</v>
       </c>
       <c r="C101" t="n">
-        <v>1105.61</v>
+        <v>4719.17</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.08724</v>
+        <v>3.09492</v>
       </c>
       <c r="B102" t="n">
-        <v>1.10018</v>
+        <v>4.644979999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>1100.18</v>
+        <v>4644.98</v>
       </c>
     </row>
   </sheetData>
